--- a/output/fit_clients/fit_round_185.xlsx
+++ b/output/fit_clients/fit_round_185.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2276684279.817134</v>
+        <v>2190881626.772939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047346092958906</v>
+        <v>0.08666535786789832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02868217035787057</v>
+        <v>0.02958157719633105</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1138342172.765549</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2109772407.353779</v>
+        <v>2029268786.681184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1696145954014066</v>
+        <v>0.1840380577635218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04329614764649817</v>
+        <v>0.04314646563835616</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1054886260.70923</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3652623582.52087</v>
+        <v>5029036010.876206</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1455417873839678</v>
+        <v>0.100659288919515</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03377382819066362</v>
+        <v>0.02424348397542788</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1826311780.802732</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3784172560.119569</v>
+        <v>3053729351.9936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07862529750723515</v>
+        <v>0.1089128895302217</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03221755438976455</v>
+        <v>0.0327792133524934</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1892086298.032426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2140583130.710948</v>
+        <v>2088192276.423101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1351299895491085</v>
+        <v>0.1243314686564156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0545238286114576</v>
+        <v>0.04948176548000214</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1070291579.715733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1971254324.906759</v>
+        <v>2275932004.483474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09723231598805743</v>
+        <v>0.07430617571440074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04481029031761483</v>
+        <v>0.03546426187530159</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>58</v>
-      </c>
-      <c r="J7" t="n">
-        <v>985627226.4002281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2649850319.965198</v>
+        <v>3808336950.971865</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1701823534322346</v>
+        <v>0.1934855987357763</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02016506589073338</v>
+        <v>0.03212601664320568</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1324925181.680324</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1426138978.641454</v>
+        <v>2287728466.514029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1656779478401211</v>
+        <v>0.1893414607288105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03514708834231536</v>
+        <v>0.03690744633132793</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>713069595.5156951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3603695087.794329</v>
+        <v>3968803784.446736</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1692665065691882</v>
+        <v>0.2005179149734017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05252811988250444</v>
+        <v>0.03932823433989772</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>78</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1801847535.10208</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3346147269.822889</v>
+        <v>4122395625.240536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724626255008426</v>
+        <v>0.1878372006077919</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04054235940492542</v>
+        <v>0.04440228604474433</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>76</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1673073601.971422</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2217339512.682305</v>
+        <v>2572185472.166793</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1648689395283708</v>
+        <v>0.1558844700978014</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03625559327612492</v>
+        <v>0.03469059201358541</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1108669702.639445</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4158715795.516388</v>
+        <v>4975872020.660593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07549432288524538</v>
+        <v>0.09784114751219061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01962472399157953</v>
+        <v>0.02406962725640404</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>62</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2079357944.594161</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3574748582.912778</v>
+        <v>3201426022.017085</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1785198758243707</v>
+        <v>0.1578148540623874</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02864470450922464</v>
+        <v>0.03972735574817569</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>60</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1787374284.241998</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1737373457.271724</v>
+        <v>1118190305.774555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1031523930169276</v>
+        <v>0.09567603169889503</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04707415505792416</v>
+        <v>0.04177896130335589</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>868686867.935388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2240243835.405862</v>
+        <v>2549534723.098133</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08087509900603471</v>
+        <v>0.08161538921885426</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03822902280505729</v>
+        <v>0.04211396644919947</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>29</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1120121971.701542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4237781991.098493</v>
+        <v>3520064445.075286</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1162322361329132</v>
+        <v>0.1701948354710097</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04245546525922229</v>
+        <v>0.03597162288665268</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>54</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2118891018.36252</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3393035384.70523</v>
+        <v>3658445577.84221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1844212649556348</v>
+        <v>0.1806048489381262</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02764377730935496</v>
+        <v>0.03089723328872548</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>61</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1696517694.18354</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1377690058.895272</v>
+        <v>1175933356.513667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1717944588935215</v>
+        <v>0.1307702464175065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02617808267468339</v>
+        <v>0.02696713267198663</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>688845150.5738183</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1748275718.306503</v>
+        <v>2622309319.98475</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1450283542698702</v>
+        <v>0.1418837590657912</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02604538848617816</v>
+        <v>0.02144983066614251</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" t="n">
-        <v>874137912.2793725</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1673486111.36912</v>
+        <v>2555955850.260722</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08423542084212486</v>
+        <v>0.07766673205179654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03210768634397621</v>
+        <v>0.03463926148928199</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>836743122.8650683</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3873036266.194498</v>
+        <v>3101862739.055008</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1428727989043428</v>
+        <v>0.1329691779966638</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04871620184838819</v>
+        <v>0.04521736652845158</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1936518142.321805</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1334230263.649588</v>
+        <v>1429138810.996163</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1465488534692703</v>
+        <v>0.1308540077852949</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04568754979410777</v>
+        <v>0.04359604694952576</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>667115145.6715168</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3469754623.774301</v>
+        <v>3502647739.823821</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1379137514847525</v>
+        <v>0.116914764414349</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02624889262369362</v>
+        <v>0.03313819474458566</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1734877315.489794</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1116832700.935638</v>
+        <v>1308481428.22115</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1116060672148192</v>
+        <v>0.08987530774185558</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02791665345751427</v>
+        <v>0.02624487255608995</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>558416387.5428804</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1195320551.637939</v>
+        <v>1355123653.462754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09220768358812657</v>
+        <v>0.1090052088277167</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0289487355251828</v>
+        <v>0.02611884327300547</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>597660295.6671486</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3612687512.165945</v>
+        <v>3681114905.632534</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1422775704332774</v>
+        <v>0.1438548993968762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02619537304242005</v>
+        <v>0.02491374667554227</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1806343785.447912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3578187731.962439</v>
+        <v>3488190111.349479</v>
       </c>
       <c r="F28" t="n">
-        <v>0.127552289675127</v>
+        <v>0.1044254731380328</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04632359590570991</v>
+        <v>0.03779339582223141</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>59</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1789093927.388877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5751594366.116464</v>
+        <v>5032806098.918859</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1462048747801788</v>
+        <v>0.1101938716252789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02951337749418891</v>
+        <v>0.03771198242248112</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2875797078.558229</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1633960230.417038</v>
+        <v>2397657239.106347</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1214095251810402</v>
+        <v>0.08827349055055596</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02435671727879122</v>
+        <v>0.03882063960372438</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>816980110.9330143</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>942929873.5674766</v>
+        <v>1368207385.127614</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0815701716554665</v>
+        <v>0.09095699250150797</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03704661295708177</v>
+        <v>0.03409677712500113</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>471464948.7312733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1791327973.23478</v>
+        <v>1246197447.690297</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08109855767691708</v>
+        <v>0.1149729435517685</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02968784743306886</v>
+        <v>0.03112384538510771</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>895664115.2594963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2775384365.831517</v>
+        <v>2758499627.533295</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1398030354253323</v>
+        <v>0.179097408970501</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05681203655507778</v>
+        <v>0.05506642918277622</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>56</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1387692197.662863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1346708876.584152</v>
+        <v>1218643911.414583</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0977664029344299</v>
+        <v>0.07714491350279</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02334791687996556</v>
+        <v>0.0239693546891283</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>673354419.2323009</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1096908356.410696</v>
+        <v>1362205962.751465</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08382400305686605</v>
+        <v>0.08061263150696878</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04001285755469526</v>
+        <v>0.04522867554679715</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>548454175.5190843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3067618846.473874</v>
+        <v>2538776393.42213</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1199224498173001</v>
+        <v>0.127451767384485</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02042000129345137</v>
+        <v>0.02490004127308256</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>46</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1533809399.723457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2270310583.122684</v>
+        <v>2201037793.539931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09529646945442569</v>
+        <v>0.09846632379466319</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03065966438409399</v>
+        <v>0.02728125207448589</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>51</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1135155355.987431</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1884528179.525349</v>
+        <v>1624790587.074076</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1004015130941616</v>
+        <v>0.09025961514992754</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0275528337905105</v>
+        <v>0.03693903653663465</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>942264084.6762084</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1921731849.234445</v>
+        <v>1772767197.7002</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1473220002837076</v>
+        <v>0.1664758151437752</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03228640455307608</v>
+        <v>0.03289610886015269</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>960865931.0045705</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1653299224.139337</v>
+        <v>1419496509.283112</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1122164192998817</v>
+        <v>0.1020614499424052</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05164694641843903</v>
+        <v>0.05691553088846061</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>826649539.8743223</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2002889725.10941</v>
+        <v>2001157082.591685</v>
       </c>
       <c r="F41" t="n">
-        <v>0.164264376105292</v>
+        <v>0.1428361307438078</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0436956059088181</v>
+        <v>0.03671609905865136</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1001444936.469004</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3725410316.463404</v>
+        <v>4008728034.153587</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1159088910122057</v>
+        <v>0.1129737817820879</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0459242472695896</v>
+        <v>0.0286050901305206</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>60</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1862705168.571565</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2708558798.752523</v>
+        <v>2087050296.428024</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1676018675555466</v>
+        <v>0.1558092516550406</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01718571561182338</v>
+        <v>0.01689816580970899</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>63</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1354279427.05127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1939952026.935497</v>
+        <v>1704189380.837649</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07123044711973779</v>
+        <v>0.07591146941692174</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0324311063460384</v>
+        <v>0.03114080388172469</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>969976107.7987421</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2534607154.397928</v>
+        <v>2205756047.437293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1722234239138553</v>
+        <v>0.1564128140381124</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04670525027029992</v>
+        <v>0.04428068880067047</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1267303621.904423</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3976606709.227249</v>
+        <v>5732772280.259648</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1632570910305454</v>
+        <v>0.1501782102186869</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05449268250366721</v>
+        <v>0.05293020029833689</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>66</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1988303322.793789</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3751897112.049942</v>
+        <v>3254154807.862902</v>
       </c>
       <c r="F47" t="n">
-        <v>0.182060101782365</v>
+        <v>0.1671128379180379</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03905448364128832</v>
+        <v>0.037778240179744</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>49</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1875948541.083468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3002740918.360502</v>
+        <v>3921549180.599478</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1009516765701598</v>
+        <v>0.06997017688884739</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03868403561819304</v>
+        <v>0.03907452680397764</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1501370551.469888</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1458420253.094492</v>
+        <v>1895699828.80243</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1720599481758643</v>
+        <v>0.1298057118722017</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03261465193247864</v>
+        <v>0.04456777595626292</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>729210165.0207846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2726414941.287814</v>
+        <v>3200024706.703647</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1743741958850958</v>
+        <v>0.1382581262397054</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05182612538759707</v>
+        <v>0.05328567664103821</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>63</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1363207549.902516</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1017368703.41446</v>
+        <v>1028051054.284881</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1186160288131415</v>
+        <v>0.1939402605208982</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05283182500419805</v>
+        <v>0.05142732499986193</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>508684432.8380366</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3663222866.995327</v>
+        <v>3674992978.966176</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1114012693381879</v>
+        <v>0.1031643482732512</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04540456657031838</v>
+        <v>0.04881100684126581</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>76</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1831611509.775677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2822091253.226518</v>
+        <v>2732507988.967356</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1781842348613685</v>
+        <v>0.1238392080237834</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02576325702295053</v>
+        <v>0.03530088433208987</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>53</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1411045671.335814</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4031948340.967205</v>
+        <v>3928395917.779416</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1320041497529781</v>
+        <v>0.1120893841926324</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04548129224278899</v>
+        <v>0.03517603320236764</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>60</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2015974237.023891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4040508944.910585</v>
+        <v>4878949004.841793</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2067779568983763</v>
+        <v>0.1530149112277167</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02861887002469062</v>
+        <v>0.02535548697533088</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2020254449.150219</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1669431087.043416</v>
+        <v>1547111261.876007</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1054979462682765</v>
+        <v>0.1007900765522752</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05575538322952767</v>
+        <v>0.05141353047150152</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>834715560.6608853</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3373555516.346256</v>
+        <v>4049832494.213405</v>
       </c>
       <c r="F57" t="n">
-        <v>0.123316638767015</v>
+        <v>0.1324838086047072</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02521049067789611</v>
+        <v>0.02305558819708617</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>59</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1686777793.909138</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1846801622.09254</v>
+        <v>1745711391.534058</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1293073080609126</v>
+        <v>0.1769280148526041</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02672739463739355</v>
+        <v>0.03299929859143025</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>923400810.5161216</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3452830834.504061</v>
+        <v>3831995323.997451</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08384120625968275</v>
+        <v>0.120825234227948</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0439052314624661</v>
+        <v>0.04813758878612075</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>51</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1726415419.568915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3154463087.889937</v>
+        <v>2940581465.488054</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2012769801309714</v>
+        <v>0.142973330886135</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02768890039906909</v>
+        <v>0.02834687401419542</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1577231630.471685</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3001523810.8216</v>
+        <v>2237916941.342245</v>
       </c>
       <c r="F61" t="n">
-        <v>0.11640518450837</v>
+        <v>0.1224800281239379</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02822258424391318</v>
+        <v>0.02044965509553853</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1500761885.712235</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1938640769.706003</v>
+        <v>2025282487.750354</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1578308900978412</v>
+        <v>0.1300763165440442</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03050086966274473</v>
+        <v>0.03720169370976941</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>969320433.7082628</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3777093220.577242</v>
+        <v>5262757691.396176</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08655276480864624</v>
+        <v>0.07692515214975998</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04464644412505329</v>
+        <v>0.03308898781705837</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>52</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1888546682.585092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3407922524.307599</v>
+        <v>3561734948.279902</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1250210511961586</v>
+        <v>0.1516447580368842</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03506921082580926</v>
+        <v>0.02582744518945436</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1703961256.33737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5546484033.217079</v>
+        <v>5936475837.942118</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1272968499990134</v>
+        <v>0.1636523775258064</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02547950291170426</v>
+        <v>0.02558077631608117</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>66</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2773241942.869794</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5416412402.767368</v>
+        <v>4003188837.722894</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1296641125478786</v>
+        <v>0.1389761944588267</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05067823826196142</v>
+        <v>0.03685258706199521</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>54</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2708206250.865353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2678178653.763964</v>
+        <v>3112426488.766558</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07407178127382877</v>
+        <v>0.08162095296910206</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05110249306468525</v>
+        <v>0.0402205376715255</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1339089372.389992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4232461375.19188</v>
+        <v>3869796165.14772</v>
       </c>
       <c r="F68" t="n">
-        <v>0.126257896011539</v>
+        <v>0.1464936914120037</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04469801022181794</v>
+        <v>0.03862394691236769</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>60</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2116230697.450139</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2224484018.461298</v>
+        <v>1736987067.181863</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1796081602462636</v>
+        <v>0.122058924901127</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04104922157467016</v>
+        <v>0.05270911010932802</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1112242043.210995</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3606191963.316076</v>
+        <v>3533898273.12739</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09880835488735616</v>
+        <v>0.09587728776377792</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04924055758085939</v>
+        <v>0.0419249368043443</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>53</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1803095998.082383</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5508428843.817618</v>
+        <v>4643172783.752039</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1429209471023818</v>
+        <v>0.1481108497955655</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02714592812226407</v>
+        <v>0.02985970270779936</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2754214565.549537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2116417690.878705</v>
+        <v>1480832836.819358</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1037320634921482</v>
+        <v>0.068577474889711</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04160045867176448</v>
+        <v>0.05242676189922117</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1058208772.950819</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2947948279.369913</v>
+        <v>2274220041.790074</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1079712301181055</v>
+        <v>0.09073888174229949</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03566939560221039</v>
+        <v>0.04633163372481502</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1473974140.392682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3504211092.362576</v>
+        <v>2966807328.130606</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1611391049030926</v>
+        <v>0.1793678553375079</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03225006563237053</v>
+        <v>0.02682985297422924</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>63</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1752105567.977953</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2188813802.472111</v>
+        <v>2413362820.219223</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1177661088438838</v>
+        <v>0.1122321040361043</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02474973125368611</v>
+        <v>0.03203744076373388</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1094406847.645689</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4809279792.946055</v>
+        <v>5213513708.963343</v>
       </c>
       <c r="F76" t="n">
-        <v>0.125045017329399</v>
+        <v>0.08953103932613304</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02607028004239132</v>
+        <v>0.03231151942575847</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2404639915.066658</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2238768623.003842</v>
+        <v>1893018682.399375</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1527469657888601</v>
+        <v>0.1281081733468575</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02449840194663035</v>
+        <v>0.02125583269313793</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1119384408.252742</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3741439663.134284</v>
+        <v>4565631107.978115</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244023120909777</v>
+        <v>0.1220538730894457</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03833624415401576</v>
+        <v>0.03959529684341095</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1870719815.785678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1708668203.282193</v>
+        <v>1397870708.743794</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1526355278644231</v>
+        <v>0.1223606049776839</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03977250854356257</v>
+        <v>0.03887942687807821</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>854334172.3168817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5132944510.121976</v>
+        <v>4474698809.892766</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08360746295737441</v>
+        <v>0.07070293954302546</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02759551596460831</v>
+        <v>0.02985699474453189</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>39</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2566472310.854108</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3826894368.814115</v>
+        <v>4878232636.132344</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1258863783250621</v>
+        <v>0.1291210212304455</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02516274563615966</v>
+        <v>0.02208500612874293</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1913447141.175989</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3669927208.860475</v>
+        <v>5178783997.35137</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2161111465785399</v>
+        <v>0.1497388167675838</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02638375475812502</v>
+        <v>0.02730908829939013</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>66</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1834963662.591565</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1831834893.414226</v>
+        <v>1758447243.763791</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1375079196344294</v>
+        <v>0.1571618744862612</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04309485983165248</v>
+        <v>0.0434371973951573</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>915917411.0845693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1837295098.144432</v>
+        <v>2060474045.035632</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08475137469692302</v>
+        <v>0.09467325135874295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04073556005356194</v>
+        <v>0.04507592612627524</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>918647577.9256736</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2575198809.87323</v>
+        <v>3209723612.895907</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1501527349697715</v>
+        <v>0.1415738116501814</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0480816094800793</v>
+        <v>0.0353440533444577</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>69</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1287599418.158179</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1935284283.268722</v>
+        <v>2556697193.0653</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1438965346024642</v>
+        <v>0.1065674451296481</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02335989110123093</v>
+        <v>0.01710035556204987</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>967642160.2403642</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>981389094.7354629</v>
+        <v>1219253512.817113</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1740190643066919</v>
+        <v>0.1342004238082435</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03765138969449432</v>
+        <v>0.03264792572759284</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>490694546.9016644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3192294828.764361</v>
+        <v>3074707371.065389</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1256088092660742</v>
+        <v>0.1640909637405493</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03100173109856743</v>
+        <v>0.02489475496033069</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>73</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1596147463.802052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2715229424.470013</v>
+        <v>3451694102.525636</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1251421831214547</v>
+        <v>0.1195122536903419</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03840884832984058</v>
+        <v>0.03966618546854923</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>63</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1357614771.209168</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1839652347.955488</v>
+        <v>1591302785.12799</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1324214013920654</v>
+        <v>0.1008586832239893</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04610969177032867</v>
+        <v>0.04680093211318947</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>919826214.8828346</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1591662690.110402</v>
+        <v>1708780891.98332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1792791421819276</v>
+        <v>0.1347003232839916</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05385119846207189</v>
+        <v>0.06147267469668401</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>795831371.7305017</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1970729157.294293</v>
+        <v>2043140799.747274</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09501489182508904</v>
+        <v>0.09766808764528945</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04354133075016847</v>
+        <v>0.04418151844529986</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>985364522.6260045</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4913214591.004292</v>
+        <v>3565497401.91677</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09085366803802758</v>
+        <v>0.1113853250114957</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0389438284557443</v>
+        <v>0.04768136732105589</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2456607237.026193</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1573095774.511757</v>
+        <v>2397790217.922889</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1258620752583457</v>
+        <v>0.1184245779203669</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02737005561295151</v>
+        <v>0.03426844390701498</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>786547829.9984902</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2378182929.607204</v>
+        <v>2025138431.114257</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1330536654566021</v>
+        <v>0.1221951481382017</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04096303064019975</v>
+        <v>0.03551712113681076</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>44</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1189091509.759883</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2021473327.874995</v>
+        <v>2052271326.7371</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09931924441021678</v>
+        <v>0.1153613907145846</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04697941777710885</v>
+        <v>0.03805383361194016</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1010736648.591967</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5192382166.823065</v>
+        <v>4191720676.169238</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1366249342603271</v>
+        <v>0.151325047740136</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02192942294317848</v>
+        <v>0.02064762284691726</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2596191235.653293</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2857111970.100132</v>
+        <v>3794148953.583073</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1054490726052342</v>
+        <v>0.1031934304669911</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02135796601359751</v>
+        <v>0.02941146451878008</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1428555960.049805</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2113197556.935364</v>
+        <v>2146035777.118636</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1255943279975018</v>
+        <v>0.09261416959560688</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02291672761162285</v>
+        <v>0.02408903555278519</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>58</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1056598700.113222</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3603469293.848096</v>
+        <v>3587497579.086781</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1349087065049014</v>
+        <v>0.1334356184189905</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01852601709369714</v>
+        <v>0.0196172544077677</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>56</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1801734685.917996</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2201483572.89535</v>
+        <v>2959454269.745976</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1412130886699425</v>
+        <v>0.2217330157660344</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04965806733338671</v>
+        <v>0.04536888621312361</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1100741769.993721</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_185.xlsx
+++ b/output/fit_clients/fit_round_185.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2190881626.772939</v>
+        <v>2382768082.421333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08666535786789832</v>
+        <v>0.1041658314438264</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02958157719633105</v>
+        <v>0.03024657877848441</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2029268786.681184</v>
+        <v>1764983985.802003</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1840380577635218</v>
+        <v>0.1718769360560757</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04314646563835616</v>
+        <v>0.03452850595757641</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5029036010.876206</v>
+        <v>4726877421.756194</v>
       </c>
       <c r="F4" t="n">
-        <v>0.100659288919515</v>
+        <v>0.1577033787565886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02424348397542788</v>
+        <v>0.03357316196340995</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3053729351.9936</v>
+        <v>3979831501.584957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1089128895302217</v>
+        <v>0.09193466583707451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0327792133524934</v>
+        <v>0.03920231481209627</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2088192276.423101</v>
+        <v>1919364460.74327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1243314686564156</v>
+        <v>0.1141552465030772</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04948176548000214</v>
+        <v>0.04886589986944995</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2275932004.483474</v>
+        <v>2346496703.057979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07430617571440074</v>
+        <v>0.07874880852602488</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03546426187530159</v>
+        <v>0.04224420408812788</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3808336950.971865</v>
+        <v>3345293635.364321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1934855987357763</v>
+        <v>0.1450990535869316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03212601664320568</v>
+        <v>0.03198304864860716</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2287728466.514029</v>
+        <v>2025179811.668265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1893414607288105</v>
+        <v>0.1310914364069443</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03690744633132793</v>
+        <v>0.03732355233388605</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3968803784.446736</v>
+        <v>5557867598.215702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2005179149734017</v>
+        <v>0.211086249572339</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03932823433989772</v>
+        <v>0.04912250512492117</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4122395625.240536</v>
+        <v>2599147824.570903</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1878372006077919</v>
+        <v>0.1446611338130552</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04440228604474433</v>
+        <v>0.04036312883615023</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2572185472.166793</v>
+        <v>2910362808.844783</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1558844700978014</v>
+        <v>0.1715640703150826</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03469059201358541</v>
+        <v>0.04044957846998016</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4975872020.660593</v>
+        <v>3649422736.717291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09784114751219061</v>
+        <v>0.07108011430734743</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02406962725640404</v>
+        <v>0.02813239190973161</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3201426022.017085</v>
+        <v>2513382678.212654</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1578148540623874</v>
+        <v>0.1606484072544992</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03972735574817569</v>
+        <v>0.03145268880467138</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118190305.774555</v>
+        <v>1612102692.937189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09567603169889503</v>
+        <v>0.1075395569649927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04177896130335589</v>
+        <v>0.03193814073696835</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2549534723.098133</v>
+        <v>1976814433.703276</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08161538921885426</v>
+        <v>0.0772075591041116</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04211396644919947</v>
+        <v>0.04021221891263646</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3520064445.075286</v>
+        <v>3927022793.86493</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1701948354710097</v>
+        <v>0.1305385992323503</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03597162288665268</v>
+        <v>0.04350677418969292</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3658445577.84221</v>
+        <v>2482635778.848724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1806048489381262</v>
+        <v>0.1118005366796514</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03089723328872548</v>
+        <v>0.02644624551988243</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1175933356.513667</v>
+        <v>1317565690.409459</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1307702464175065</v>
+        <v>0.1770544588250744</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02696713267198663</v>
+        <v>0.02462184890384123</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2622309319.98475</v>
+        <v>2116782856.779573</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1418837590657912</v>
+        <v>0.1592538545818592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02144983066614251</v>
+        <v>0.03172942517960171</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2555955850.260722</v>
+        <v>2008110421.15245</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07766673205179654</v>
+        <v>0.07824528112592859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03463926148928199</v>
+        <v>0.03862232806140892</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3101862739.055008</v>
+        <v>2817728471.304536</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1329691779966638</v>
+        <v>0.1434006445053719</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04521736652845158</v>
+        <v>0.03548642056919073</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1429138810.996163</v>
+        <v>1459080068.260581</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1308540077852949</v>
+        <v>0.1698978201123287</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04359604694952576</v>
+        <v>0.04123901236741536</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3502647739.823821</v>
+        <v>3655733679.613916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.116914764414349</v>
+        <v>0.1458473277380714</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03313819474458566</v>
+        <v>0.03165684862041117</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1308481428.22115</v>
+        <v>1100723214.114484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08987530774185558</v>
+        <v>0.09640611705833237</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02624487255608995</v>
+        <v>0.02312156279108363</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1355123653.462754</v>
+        <v>1089804470.006379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1090052088277167</v>
+        <v>0.1187486875053919</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02611884327300547</v>
+        <v>0.02719528647073759</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3681114905.632534</v>
+        <v>3215786210.508767</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1438548993968762</v>
+        <v>0.113173173339519</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02491374667554227</v>
+        <v>0.01947514315305805</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3488190111.349479</v>
+        <v>2775154439.869981</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1044254731380328</v>
+        <v>0.1015352024132682</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03779339582223141</v>
+        <v>0.03034922809227925</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5032806098.918859</v>
+        <v>3819234593.545261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1101938716252789</v>
+        <v>0.1253090102633469</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03771198242248112</v>
+        <v>0.04040897968478326</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2397657239.106347</v>
+        <v>1639400846.329114</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08827349055055596</v>
+        <v>0.1222489829011026</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03882063960372438</v>
+        <v>0.03340081035716706</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1368207385.127614</v>
+        <v>1006825990.323883</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09095699250150797</v>
+        <v>0.09213606511963185</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03409677712500113</v>
+        <v>0.03515451073821176</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1246197447.690297</v>
+        <v>1673882989.601824</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1149729435517685</v>
+        <v>0.1068372645882615</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03112384538510771</v>
+        <v>0.02786469756987938</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2758499627.533295</v>
+        <v>2265174271.862174</v>
       </c>
       <c r="F33" t="n">
-        <v>0.179097408970501</v>
+        <v>0.1412231958642056</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05506642918277622</v>
+        <v>0.04719432177901636</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1218643911.414583</v>
+        <v>1545429837.145807</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07714491350279</v>
+        <v>0.1150795071599694</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0239693546891283</v>
+        <v>0.02175126508534111</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1362205962.751465</v>
+        <v>1094043419.190478</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08061263150696878</v>
+        <v>0.1105256001100449</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04522867554679715</v>
+        <v>0.03483237824118255</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2538776393.42213</v>
+        <v>3076461210.054431</v>
       </c>
       <c r="F36" t="n">
-        <v>0.127451767384485</v>
+        <v>0.1489277438023687</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02490004127308256</v>
+        <v>0.01848217926724742</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2201037793.539931</v>
+        <v>2078490460.922366</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09846632379466319</v>
+        <v>0.08877038719509488</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02728125207448589</v>
+        <v>0.0407755186670136</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1624790587.074076</v>
+        <v>1878217596.151217</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09025961514992754</v>
+        <v>0.1066367750344864</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03693903653663465</v>
+        <v>0.02628363388538367</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1772767197.7002</v>
+        <v>1686158851.784212</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1664758151437752</v>
+        <v>0.1619771790513672</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03289610886015269</v>
+        <v>0.03191014241205103</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1419496509.283112</v>
+        <v>1542463942.555146</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1020614499424052</v>
+        <v>0.132645511733041</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05691553088846061</v>
+        <v>0.04718068786883097</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2001157082.591685</v>
+        <v>2336759454.199274</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1428361307438078</v>
+        <v>0.1199286374295604</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03671609905865136</v>
+        <v>0.03471891862856196</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4008728034.153587</v>
+        <v>3379687537.181954</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1129737817820879</v>
+        <v>0.1265819724353119</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0286050901305206</v>
+        <v>0.04484694572056344</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2087050296.428024</v>
+        <v>1970721708.653138</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1558092516550406</v>
+        <v>0.1758180158509833</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01689816580970899</v>
+        <v>0.01900913659816034</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1704189380.837649</v>
+        <v>2084882808.74615</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07591146941692174</v>
+        <v>0.09075335527337437</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03114080388172469</v>
+        <v>0.02895780823529843</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2205756047.437293</v>
+        <v>1931416052.356858</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1564128140381124</v>
+        <v>0.1898681224270557</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04428068880067047</v>
+        <v>0.04306710194483841</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5732772280.259648</v>
+        <v>4014545906.229784</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1501782102186869</v>
+        <v>0.1417767878354221</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05293020029833689</v>
+        <v>0.0494550787293592</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3254154807.862902</v>
+        <v>3947580863.247775</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1671128379180379</v>
+        <v>0.1757716364219509</v>
       </c>
       <c r="G47" t="n">
-        <v>0.037778240179744</v>
+        <v>0.05705421335510701</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3921549180.599478</v>
+        <v>2984686492.424895</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06997017688884739</v>
+        <v>0.09139690190337285</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03907452680397764</v>
+        <v>0.03256804986210594</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1895699828.80243</v>
+        <v>1381110149.500463</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1298057118722017</v>
+        <v>0.1666079444267722</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04456777595626292</v>
+        <v>0.03087499983454615</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3200024706.703647</v>
+        <v>4030169090.221206</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1382581262397054</v>
+        <v>0.1177129461091252</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05328567664103821</v>
+        <v>0.04119532788959498</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1028051054.284881</v>
+        <v>1031139551.482004</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1939402605208982</v>
+        <v>0.1302285900208305</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05142732499986193</v>
+        <v>0.03598208326588001</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3674992978.966176</v>
+        <v>5075093744.029649</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031643482732512</v>
+        <v>0.1351160748926782</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04881100684126581</v>
+        <v>0.04784282811524958</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2732507988.967356</v>
+        <v>2869730413.403419</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1238392080237834</v>
+        <v>0.1965309942948554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03530088433208987</v>
+        <v>0.02649738057622092</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3928395917.779416</v>
+        <v>3688481296.560485</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1120893841926324</v>
+        <v>0.1308237738587144</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03517603320236764</v>
+        <v>0.04317915074134643</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4878949004.841793</v>
+        <v>3020720505.904867</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1530149112277167</v>
+        <v>0.1406756226040003</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02535548697533088</v>
+        <v>0.03070098411817539</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1547111261.876007</v>
+        <v>1668109785.485563</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1007900765522752</v>
+        <v>0.1132142969511442</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05141353047150152</v>
+        <v>0.03750728105723901</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4049832494.213405</v>
+        <v>4135865446.58399</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1324838086047072</v>
+        <v>0.1627414940628185</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02305558819708617</v>
+        <v>0.02108501272538483</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1745711391.534058</v>
+        <v>1747013287.681107</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1769280148526041</v>
+        <v>0.1620552956190708</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03299929859143025</v>
+        <v>0.02456824339921184</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3831995323.997451</v>
+        <v>4980998678.019334</v>
       </c>
       <c r="F59" t="n">
-        <v>0.120825234227948</v>
+        <v>0.07924462609743685</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04813758878612075</v>
+        <v>0.04134208941668265</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2940581465.488054</v>
+        <v>3649625186.179896</v>
       </c>
       <c r="F60" t="n">
-        <v>0.142973330886135</v>
+        <v>0.1778158561426794</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02834687401419542</v>
+        <v>0.03314731436194614</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2237916941.342245</v>
+        <v>3376440286.268438</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1224800281239379</v>
+        <v>0.1157509864826116</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02044965509553853</v>
+        <v>0.02642924928119054</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2025282487.750354</v>
+        <v>1385504405.86549</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1300763165440442</v>
+        <v>0.1818899124842571</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03720169370976941</v>
+        <v>0.04228000535472846</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5262757691.396176</v>
+        <v>3728552789.373845</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07692515214975998</v>
+        <v>0.08111467240839694</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03308898781705837</v>
+        <v>0.04004341341570997</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3561734948.279902</v>
+        <v>5376292031.03863</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1516447580368842</v>
+        <v>0.1293697848896595</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02582744518945436</v>
+        <v>0.0291583964398515</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5936475837.942118</v>
+        <v>3921961171.948302</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1636523775258064</v>
+        <v>0.1626264170068728</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02558077631608117</v>
+        <v>0.02526426481833121</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4003188837.722894</v>
+        <v>5435979943.466032</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1389761944588267</v>
+        <v>0.1555258540614972</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03685258706199521</v>
+        <v>0.03840058601467147</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3112426488.766558</v>
+        <v>3394223370.802171</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08162095296910206</v>
+        <v>0.07667259415835541</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0402205376715255</v>
+        <v>0.04428388254015721</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3869796165.14772</v>
+        <v>5903585577.456667</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1464936914120037</v>
+        <v>0.1073001452075399</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03862394691236769</v>
+        <v>0.05028571940408923</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1736987067.181863</v>
+        <v>2383568653.937828</v>
       </c>
       <c r="F69" t="n">
-        <v>0.122058924901127</v>
+        <v>0.1459405247549904</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05270911010932802</v>
+        <v>0.05047244017349851</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3533898273.12739</v>
+        <v>2923305060.721885</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09587728776377792</v>
+        <v>0.07883013474929375</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0419249368043443</v>
+        <v>0.03185305175478707</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4643172783.752039</v>
+        <v>5533034522.579879</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1481108497955655</v>
+        <v>0.1499103767117667</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02985970270779936</v>
+        <v>0.02829095534063081</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1480832836.819358</v>
+        <v>1889257544.228161</v>
       </c>
       <c r="F72" t="n">
-        <v>0.068577474889711</v>
+        <v>0.0768390436712062</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05242676189922117</v>
+        <v>0.03578000535286922</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2274220041.790074</v>
+        <v>2675601635.542864</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09073888174229949</v>
+        <v>0.08879040221874322</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04633163372481502</v>
+        <v>0.04093349792618174</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2966807328.130606</v>
+        <v>3771936590.408412</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1793678553375079</v>
+        <v>0.1381713473861611</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02682985297422924</v>
+        <v>0.02229044233645861</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2413362820.219223</v>
+        <v>1764154185.300376</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1122321040361043</v>
+        <v>0.1387560064243689</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03203744076373388</v>
+        <v>0.03792493652161293</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5213513708.963343</v>
+        <v>4035833246.615939</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08953103932613304</v>
+        <v>0.1086399335791393</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03231151942575847</v>
+        <v>0.02749206850271321</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1893018682.399375</v>
+        <v>2270820342.80133</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1281081733468575</v>
+        <v>0.1608188621043593</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02125583269313793</v>
+        <v>0.02580771721120802</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4565631107.978115</v>
+        <v>3167151076.465345</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1220538730894457</v>
+        <v>0.0824100884378617</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03959529684341095</v>
+        <v>0.05672361439531055</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1397870708.743794</v>
+        <v>1922589540.654088</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1223606049776839</v>
+        <v>0.1101795516260221</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03887942687807821</v>
+        <v>0.03606937287091411</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4474698809.892766</v>
+        <v>3984887372.05939</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07070293954302546</v>
+        <v>0.1118841375452414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02985699474453189</v>
+        <v>0.0377957253177692</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4878232636.132344</v>
+        <v>3532341967.149482</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1291210212304455</v>
+        <v>0.09378052507028728</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02208500612874293</v>
+        <v>0.03210037290046006</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5178783997.35137</v>
+        <v>4630868342.678757</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1497388167675838</v>
+        <v>0.157816248242353</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02730908829939013</v>
+        <v>0.0268270492060555</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1758447243.763791</v>
+        <v>2433499396.232131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1571618744862612</v>
+        <v>0.1525724244559875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0434371973951573</v>
+        <v>0.03773023772174853</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2060474045.035632</v>
+        <v>1910381130.125101</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09467325135874295</v>
+        <v>0.1132377822122755</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04507592612627524</v>
+        <v>0.0507573411494041</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3209723612.895907</v>
+        <v>3025295136.354722</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1415738116501814</v>
+        <v>0.1722905791234151</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0353440533444577</v>
+        <v>0.03426862012854909</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2556697193.0653</v>
+        <v>2530662915.280393</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1065674451296481</v>
+        <v>0.1049166688593915</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01710035556204987</v>
+        <v>0.02209350263023134</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1219253512.817113</v>
+        <v>1254174064.860385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1342004238082435</v>
+        <v>0.1723661404947931</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03264792572759284</v>
+        <v>0.02993319453804106</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3074707371.065389</v>
+        <v>3108458107.21355</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1640909637405493</v>
+        <v>0.1669359921765125</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02489475496033069</v>
+        <v>0.0359638690863021</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3451694102.525636</v>
+        <v>2174654394.117586</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1195122536903419</v>
+        <v>0.1545235109269608</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03966618546854923</v>
+        <v>0.02665579194721473</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1591302785.12799</v>
+        <v>1511798203.264736</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1008586832239893</v>
+        <v>0.1076066073323587</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04680093211318947</v>
+        <v>0.05435799108354382</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1708780891.98332</v>
+        <v>1743942785.337673</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1347003232839916</v>
+        <v>0.1601825456753931</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06147267469668401</v>
+        <v>0.06195003611259502</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2043140799.747274</v>
+        <v>2212705306.930505</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09766808764528945</v>
+        <v>0.08558835030239895</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04418151844529986</v>
+        <v>0.03341533885452303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3565497401.91677</v>
+        <v>3675918013.829341</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1113853250114957</v>
+        <v>0.1016799291861168</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04768136732105589</v>
+        <v>0.04220501266476129</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2397790217.922889</v>
+        <v>2213244676.675975</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1184245779203669</v>
+        <v>0.1137997808463327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03426844390701498</v>
+        <v>0.03352804443603959</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2025138431.114257</v>
+        <v>2589565431.329365</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1221951481382017</v>
+        <v>0.106313730106309</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03551712113681076</v>
+        <v>0.04420017096870869</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2052271326.7371</v>
+        <v>2037979707.176649</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1153613907145846</v>
+        <v>0.08859056629471024</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03805383361194016</v>
+        <v>0.04479769074541417</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4191720676.169238</v>
+        <v>4331557962.036775</v>
       </c>
       <c r="F97" t="n">
-        <v>0.151325047740136</v>
+        <v>0.1734088052814558</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02064762284691726</v>
+        <v>0.0201008052658285</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3794148953.583073</v>
+        <v>2828147185.548095</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1031934304669911</v>
+        <v>0.1161508724975638</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02941146451878008</v>
+        <v>0.02563396426422628</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2146035777.118636</v>
+        <v>2358427470.644765</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09261416959560688</v>
+        <v>0.1133768785457529</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02408903555278519</v>
+        <v>0.03008398212311625</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3587497579.086781</v>
+        <v>4737660524.994042</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1334356184189905</v>
+        <v>0.1673802885648083</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0196172544077677</v>
+        <v>0.01774045117655137</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2959454269.745976</v>
+        <v>2648656141.58825</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2217330157660344</v>
+        <v>0.1797186216623203</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04536888621312361</v>
+        <v>0.03891065436114521</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_185.xlsx
+++ b/output/fit_clients/fit_round_185.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2382768082.421333</v>
+        <v>2145875466.384651</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1041658314438264</v>
+        <v>0.07593904304366508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03024657877848441</v>
+        <v>0.04367134844177505</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1764983985.802003</v>
+        <v>2615057990.792376</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1718769360560757</v>
+        <v>0.1420330341090782</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03452850595757641</v>
+        <v>0.0443406829830187</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4726877421.756194</v>
+        <v>4113670031.507746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1577033787565886</v>
+        <v>0.1379096452451856</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03357316196340995</v>
+        <v>0.03301847630629049</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>102</v>
+      </c>
+      <c r="J4" t="n">
+        <v>184</v>
+      </c>
+      <c r="K4" t="n">
+        <v>123.271886590853</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3979831501.584957</v>
+        <v>2983080348.652247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09193466583707451</v>
+        <v>0.1032771766202315</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03920231481209627</v>
+        <v>0.03616602580869522</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>184</v>
+      </c>
+      <c r="K5" t="n">
+        <v>75.87775633739572</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1919364460.74327</v>
+        <v>2502112341.409792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1141552465030772</v>
+        <v>0.1416480094965752</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04886589986944995</v>
+        <v>0.05097315938300621</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2346496703.057979</v>
+        <v>2715873521.897356</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07874880852602488</v>
+        <v>0.07684786657832586</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04224420408812788</v>
+        <v>0.04352438392494547</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3345293635.364321</v>
+        <v>2869201713.094778</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1450990535869316</v>
+        <v>0.1402437316362968</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03198304864860716</v>
+        <v>0.02271137263480083</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>183</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2025179811.668265</v>
+        <v>2001776074.072397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1310914364069443</v>
+        <v>0.1320625124227504</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03732355233388605</v>
+        <v>0.03097223774512124</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5557867598.215702</v>
+        <v>4812686807.281668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.211086249572339</v>
+        <v>0.1729296772064112</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04912250512492117</v>
+        <v>0.04852958873476149</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>169</v>
+      </c>
+      <c r="J10" t="n">
+        <v>185</v>
+      </c>
+      <c r="K10" t="n">
+        <v>138.5528292618179</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2599147824.570903</v>
+        <v>2880201416.988873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1446611338130552</v>
+        <v>0.1623379290480335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04036312883615023</v>
+        <v>0.03847910383578708</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>182</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2910362808.844783</v>
+        <v>2861290352.353479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1715640703150826</v>
+        <v>0.1354979297586107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04044957846998016</v>
+        <v>0.05056859308912193</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3649422736.717291</v>
+        <v>4010233716.419107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07108011430734743</v>
+        <v>0.07193002165677563</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02813239190973161</v>
+        <v>0.01980939342667683</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>92</v>
+      </c>
+      <c r="J13" t="n">
+        <v>184</v>
+      </c>
+      <c r="K13" t="n">
+        <v>119.5808654545601</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2513382678.212654</v>
+        <v>3674063151.471452</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1606484072544992</v>
+        <v>0.17938440715111</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03145268880467138</v>
+        <v>0.03151662397027365</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>184</v>
+      </c>
+      <c r="K14" t="n">
+        <v>101.5011427634494</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1612102692.937189</v>
+        <v>1112013695.115075</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1075395569649927</v>
+        <v>0.06642233378249472</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03193814073696835</v>
+        <v>0.04761896934852188</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1976814433.703276</v>
+        <v>1973824937.31017</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0772075591041116</v>
+        <v>0.1016144580109382</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04021221891263646</v>
+        <v>0.04983803641584193</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3927022793.86493</v>
+        <v>4040077244.612475</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1305385992323503</v>
+        <v>0.1060831847007065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04350677418969292</v>
+        <v>0.03581097589432752</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>89</v>
+      </c>
+      <c r="J17" t="n">
+        <v>184</v>
+      </c>
+      <c r="K17" t="n">
+        <v>111.6775367127443</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1067,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2482635778.848724</v>
+        <v>3873093249.171495</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1118005366796514</v>
+        <v>0.1554403952698788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02644624551988243</v>
+        <v>0.03217861618810226</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47</v>
+      </c>
+      <c r="J18" t="n">
+        <v>184</v>
+      </c>
+      <c r="K18" t="n">
+        <v>111.6326229708903</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1104,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1317565690.409459</v>
+        <v>892878203.1799624</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1770544588250744</v>
+        <v>0.142869941412832</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02462184890384123</v>
+        <v>0.01938079757888257</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1139,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2116782856.779573</v>
+        <v>2596438984.031793</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1592538545818592</v>
+        <v>0.1370935710143087</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03172942517960171</v>
+        <v>0.02174940539330641</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1174,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2008110421.15245</v>
+        <v>2498592573.679928</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07824528112592859</v>
+        <v>0.06330906332524501</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03862232806140892</v>
+        <v>0.03575590412149279</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1209,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2817728471.304536</v>
+        <v>2671818931.171587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1434006445053719</v>
+        <v>0.09610275971097683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03548642056919073</v>
+        <v>0.05061821417172846</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>181</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1459080068.260581</v>
+        <v>1513515557.944675</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1698978201123287</v>
+        <v>0.1856718525033545</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04123901236741536</v>
+        <v>0.04902143088528042</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3655733679.613916</v>
+        <v>3412689265.603147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1458473277380714</v>
+        <v>0.1281485698422092</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03165684862041117</v>
+        <v>0.02778651760094834</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>57</v>
+      </c>
+      <c r="J24" t="n">
+        <v>185</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1100723214.114484</v>
+        <v>1226583352.129739</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09640611705833237</v>
+        <v>0.1117733524552451</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02312156279108363</v>
+        <v>0.02666987277763017</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1089804470.006379</v>
+        <v>1043154051.792579</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1187486875053919</v>
+        <v>0.1051702072045687</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02719528647073759</v>
+        <v>0.03578634060544752</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3215786210.508767</v>
+        <v>4178300167.648682</v>
       </c>
       <c r="F27" t="n">
-        <v>0.113173173339519</v>
+        <v>0.1340490775776599</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01947514315305805</v>
+        <v>0.02443324561562516</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>73</v>
+      </c>
+      <c r="J27" t="n">
+        <v>185</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2775154439.869981</v>
+        <v>3502675298.063617</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1015352024132682</v>
+        <v>0.09484645874332275</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03034922809227925</v>
+        <v>0.03314281796856018</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>37</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3819234593.545261</v>
+        <v>5078229304.300904</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253090102633469</v>
+        <v>0.1492676451355207</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04040897968478326</v>
+        <v>0.04598127387400861</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>174</v>
+      </c>
+      <c r="J29" t="n">
+        <v>185</v>
+      </c>
+      <c r="K29" t="n">
+        <v>142.922578561062</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1639400846.329114</v>
+        <v>1638249806.096395</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1222489829011026</v>
+        <v>0.1077679850551737</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03340081035716706</v>
+        <v>0.02783684913546059</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1006825990.323883</v>
+        <v>945067977.6307573</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09213606511963185</v>
+        <v>0.1039126451369412</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03515451073821176</v>
+        <v>0.04827658914782679</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1673882989.601824</v>
+        <v>1524985454.505668</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1068372645882615</v>
+        <v>0.08895988802321479</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02786469756987938</v>
+        <v>0.02423688637511451</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2265174271.862174</v>
+        <v>1998122703.499768</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1412231958642056</v>
+        <v>0.1447430830996958</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04719432177901636</v>
+        <v>0.04213576416218072</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1545429837.145807</v>
+        <v>1486281472.398316</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1150795071599694</v>
+        <v>0.1126448067662624</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02175126508534111</v>
+        <v>0.01772751432374416</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1094043419.190478</v>
+        <v>944435446.8613389</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1105256001100449</v>
+        <v>0.09392797077449735</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03483237824118255</v>
+        <v>0.0382366050892201</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3076461210.054431</v>
+        <v>2120781569.12829</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1489277438023687</v>
+        <v>0.1719458321213453</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01848217926724742</v>
+        <v>0.01915092743004657</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2078490460.922366</v>
+        <v>2787214807.695543</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08877038719509488</v>
+        <v>0.0981983163425605</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0407755186670136</v>
+        <v>0.04202232085945353</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1878217596.151217</v>
+        <v>2154995224.817974</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1066367750344864</v>
+        <v>0.09547682496704835</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02628363388538367</v>
+        <v>0.03372330185024409</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1686158851.784212</v>
+        <v>1645718620.492336</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1619771790513672</v>
+        <v>0.1719014818229513</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03191014241205103</v>
+        <v>0.02901727576261358</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1542463942.555146</v>
+        <v>1773665100.824297</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132645511733041</v>
+        <v>0.1162685033911103</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04718068786883097</v>
+        <v>0.04647918842973876</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2336759454.199274</v>
+        <v>1855272825.803788</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1199286374295604</v>
+        <v>0.1618532538257544</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03471891862856196</v>
+        <v>0.03517942075731878</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3379687537.181954</v>
+        <v>2898509454.224339</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1265819724353119</v>
+        <v>0.1162645771362261</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04484694572056344</v>
+        <v>0.03820288623889011</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>180</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1970721708.653138</v>
+        <v>2745849824.564851</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1758180158509833</v>
+        <v>0.1449979062062627</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01900913659816034</v>
+        <v>0.02191739905471548</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2084882808.74615</v>
+        <v>2214175141.571974</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09075335527337437</v>
+        <v>0.08564945717715126</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02895780823529843</v>
+        <v>0.02616290198267292</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1931416052.356858</v>
+        <v>1748866312.09481</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1898681224270557</v>
+        <v>0.1619995252015206</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04306710194483841</v>
+        <v>0.04069664765100142</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4014545906.229784</v>
+        <v>4292600577.650255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1417767878354221</v>
+        <v>0.1669346439248637</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0494550787293592</v>
+        <v>0.05237366076249853</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>105</v>
+      </c>
+      <c r="J46" t="n">
+        <v>185</v>
+      </c>
+      <c r="K46" t="n">
+        <v>126.3694189128915</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2094,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3947580863.247775</v>
+        <v>4094970739.95183</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1757716364219509</v>
+        <v>0.1485882604249151</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05705421335510701</v>
+        <v>0.05272784237579765</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>82</v>
+      </c>
+      <c r="J47" t="n">
+        <v>184</v>
+      </c>
+      <c r="K47" t="n">
+        <v>103.1733085042298</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2984686492.424895</v>
+        <v>4151649564.590139</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09139690190337285</v>
+        <v>0.07858541916667668</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03256804986210594</v>
+        <v>0.0351701885030886</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>86</v>
+      </c>
+      <c r="J48" t="n">
+        <v>185</v>
+      </c>
+      <c r="K48" t="n">
+        <v>129.8041397117511</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1381110149.500463</v>
+        <v>1920762267.241974</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1666079444267722</v>
+        <v>0.1443914067527113</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03087499983454615</v>
+        <v>0.04272541687579848</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4030169090.221206</v>
+        <v>2757103391.823985</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1177129461091252</v>
+        <v>0.1123801748468932</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04119532788959498</v>
+        <v>0.04512031218313731</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>58</v>
+      </c>
+      <c r="J50" t="n">
+        <v>182</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1031139551.482004</v>
+        <v>1474176405.622147</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1302285900208305</v>
+        <v>0.1720575525921979</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03598208326588001</v>
+        <v>0.04192462208883157</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5075093744.029649</v>
+        <v>3709274123.420226</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1351160748926782</v>
+        <v>0.08679478720767363</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04784282811524958</v>
+        <v>0.04600274706595698</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>130</v>
+      </c>
+      <c r="J52" t="n">
+        <v>185</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2869730413.403419</v>
+        <v>3595887864.756654</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1965309942948554</v>
+        <v>0.1848329289950409</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02649738057622092</v>
+        <v>0.03074455986680187</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3688481296.560485</v>
+        <v>3173510746.694856</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1308237738587144</v>
+        <v>0.1538627901786079</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04317915074134643</v>
+        <v>0.04645723766881564</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>94</v>
+      </c>
+      <c r="J54" t="n">
+        <v>184</v>
+      </c>
+      <c r="K54" t="n">
+        <v>77.70439428648712</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3020720505.904867</v>
+        <v>3278488676.324149</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1406756226040003</v>
+        <v>0.2242960815353696</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03070098411817539</v>
+        <v>0.03059307605756538</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>84</v>
+      </c>
+      <c r="J55" t="n">
+        <v>184</v>
+      </c>
+      <c r="K55" t="n">
+        <v>77.27334968538149</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2417,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1668109785.485563</v>
+        <v>1467919029.97772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1132142969511442</v>
+        <v>0.1015180516804808</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03750728105723901</v>
+        <v>0.05654893061833206</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4135865446.58399</v>
+        <v>2920308130.480269</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1627414940628185</v>
+        <v>0.1796136439320211</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02108501272538483</v>
+        <v>0.02551173547625351</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>74</v>
+      </c>
+      <c r="J57" t="n">
+        <v>181</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1747013287.681107</v>
+        <v>1379025496.791992</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1620552956190708</v>
+        <v>0.1525289648613665</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02456824339921184</v>
+        <v>0.03525592773109336</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4980998678.019334</v>
+        <v>4299768189.411634</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07924462609743685</v>
+        <v>0.09901030936312231</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04134208941668265</v>
+        <v>0.03332771819222441</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>89</v>
+      </c>
+      <c r="J59" t="n">
+        <v>184</v>
+      </c>
+      <c r="K59" t="n">
+        <v>116.2881492309887</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3649625186.179896</v>
+        <v>2669036446.505996</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1778158561426794</v>
+        <v>0.1886752910224745</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03314731436194614</v>
+        <v>0.02398468831002418</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3376440286.268438</v>
+        <v>2832798807.476594</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1157509864826116</v>
+        <v>0.1524344359669717</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02642924928119054</v>
+        <v>0.03079118131799791</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1385504405.86549</v>
+        <v>1946463172.587522</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1818899124842571</v>
+        <v>0.1941051428105935</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04228000535472846</v>
+        <v>0.04184783502571335</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3728552789.373845</v>
+        <v>5170443707.939201</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08111467240839694</v>
+        <v>0.08944253597147363</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04004341341570997</v>
+        <v>0.04237409268679509</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>91</v>
+      </c>
+      <c r="J63" t="n">
+        <v>184</v>
+      </c>
+      <c r="K63" t="n">
+        <v>117.5437227231902</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5376292031.03863</v>
+        <v>4904854753.671576</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1293697848896595</v>
+        <v>0.118376613506398</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0291583964398515</v>
+        <v>0.02547941585672669</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>91</v>
+      </c>
+      <c r="J64" t="n">
+        <v>184</v>
+      </c>
+      <c r="K64" t="n">
+        <v>119.6506751936035</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2732,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3921961171.948302</v>
+        <v>5512592311.324862</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1626264170068728</v>
+        <v>0.1483171354868656</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02526426481833121</v>
+        <v>0.02903852219861448</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>150</v>
+      </c>
+      <c r="J65" t="n">
+        <v>185</v>
+      </c>
+      <c r="K65" t="n">
+        <v>129.8305449485553</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2769,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5435979943.466032</v>
+        <v>3473553682.713098</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1555258540614972</v>
+        <v>0.1445211961114212</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03840058601467147</v>
+        <v>0.03112693586052184</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>91</v>
+      </c>
+      <c r="J66" t="n">
+        <v>184</v>
+      </c>
+      <c r="K66" t="n">
+        <v>82.44014642698949</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2812,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3394223370.802171</v>
+        <v>2211980687.923435</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07667259415835541</v>
+        <v>0.09690721924474981</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04428388254015721</v>
+        <v>0.04832738737359428</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2841,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5903585577.456667</v>
+        <v>5548011079.211615</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1073001452075399</v>
+        <v>0.1012098158593588</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05028571940408923</v>
+        <v>0.04201029808801406</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>93</v>
+      </c>
+      <c r="J68" t="n">
+        <v>184</v>
+      </c>
+      <c r="K68" t="n">
+        <v>120.1336198276975</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2878,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2383568653.937828</v>
+        <v>2014249455.259549</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1459405247549904</v>
+        <v>0.1495145444123753</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05047244017349851</v>
+        <v>0.05011565033627719</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2913,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2923305060.721885</v>
+        <v>3429670515.975946</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07883013474929375</v>
+        <v>0.08428598236272371</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03185305175478707</v>
+        <v>0.03633295120924886</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>185</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2954,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5533034522.579879</v>
+        <v>3980470561.825152</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1499103767117667</v>
+        <v>0.162807009711083</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02829095534063081</v>
+        <v>0.02989817613948757</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>143</v>
+      </c>
+      <c r="J71" t="n">
+        <v>185</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2989,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1889257544.228161</v>
+        <v>1773110775.278246</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0768390436712062</v>
+        <v>0.09761115657868821</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03578000535286922</v>
+        <v>0.03918200944319888</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3018,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2675601635.542864</v>
+        <v>3348378380.470629</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08879040221874322</v>
+        <v>0.0755739941049702</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04093349792618174</v>
+        <v>0.03570695735099554</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3053,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3771936590.408412</v>
+        <v>2766592347.978091</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1381713473861611</v>
+        <v>0.1220805679694202</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02229044233645861</v>
+        <v>0.02790106528515683</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3088,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1764154185.300376</v>
+        <v>2051217090.990368</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1387560064243689</v>
+        <v>0.1588484590408317</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03792493652161293</v>
+        <v>0.03722551167326358</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3123,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4035833246.615939</v>
+        <v>4132974873.852242</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1086399335791393</v>
+        <v>0.1232506673234561</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02749206850271321</v>
+        <v>0.031593153496757</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>84</v>
+      </c>
+      <c r="J76" t="n">
+        <v>185</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3158,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2270820342.80133</v>
+        <v>1723601534.829486</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1608188621043593</v>
+        <v>0.112774924967707</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02580771721120802</v>
+        <v>0.02333915337006493</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3193,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3167151076.465345</v>
+        <v>4801493131.06205</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0824100884378617</v>
+        <v>0.1128300440225822</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05672361439531055</v>
+        <v>0.05320956890819217</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>94</v>
+      </c>
+      <c r="J78" t="n">
+        <v>185</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1922589540.654088</v>
+        <v>1881851511.705764</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1101795516260221</v>
+        <v>0.175450969230848</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03606937287091411</v>
+        <v>0.02656813657519202</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3984887372.05939</v>
+        <v>4691310783.511144</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1118841375452414</v>
+        <v>0.06723537219849154</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0377957253177692</v>
+        <v>0.03007472008197397</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>90</v>
+      </c>
+      <c r="J80" t="n">
+        <v>185</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3532341967.149482</v>
+        <v>3249971484.526773</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09378052507028728</v>
+        <v>0.102538782808214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03210037290046006</v>
+        <v>0.02315003634373081</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>85</v>
+      </c>
+      <c r="J81" t="n">
+        <v>183</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4630868342.678757</v>
+        <v>3637211751.131516</v>
       </c>
       <c r="F82" t="n">
-        <v>0.157816248242353</v>
+        <v>0.1320023842868382</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0268270492060555</v>
+        <v>0.01819859681765501</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>137</v>
+      </c>
+      <c r="J82" t="n">
+        <v>184</v>
+      </c>
+      <c r="K82" t="n">
+        <v>105.3459266525152</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2433499396.232131</v>
+        <v>2075761280.259927</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1525724244559875</v>
+        <v>0.09565846710418324</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03773023772174853</v>
+        <v>0.03079088724609502</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1910381130.125101</v>
+        <v>2078978818.78858</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1132377822122755</v>
+        <v>0.08796825627880962</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0507573411494041</v>
+        <v>0.04580117432757693</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3025295136.354722</v>
+        <v>2886316622.534389</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1722905791234151</v>
+        <v>0.1481525510562084</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03426862012854909</v>
+        <v>0.04367290869019427</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2530662915.280393</v>
+        <v>1880966464.425852</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1049166688593915</v>
+        <v>0.1048935653345663</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02209350263023134</v>
+        <v>0.01801735013879635</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1254174064.860385</v>
+        <v>1240721735.016217</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1723661404947931</v>
+        <v>0.156935967436068</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02993319453804106</v>
+        <v>0.02802713347725038</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3108458107.21355</v>
+        <v>3713699321.952899</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1669359921765125</v>
+        <v>0.1115176372563769</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0359638690863021</v>
+        <v>0.03637143113328982</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2174654394.117586</v>
+        <v>3289853044.995086</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1545235109269608</v>
+        <v>0.09694466075221407</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02665579194721473</v>
+        <v>0.03018921796988221</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1511798203.264736</v>
+        <v>1362980296.152744</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1076066073323587</v>
+        <v>0.09914588833603714</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05435799108354382</v>
+        <v>0.03813740815419824</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1743942785.337673</v>
+        <v>1559227928.936457</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1601825456753931</v>
+        <v>0.1248764348628237</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06195003611259502</v>
+        <v>0.04154697245218218</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2212705306.930505</v>
+        <v>2847054187.204814</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08558835030239895</v>
+        <v>0.07572709333743763</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03341533885452303</v>
+        <v>0.0390508364385534</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3675918013.829341</v>
+        <v>4790632869.331335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1016799291861168</v>
+        <v>0.09650247500623763</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04220501266476129</v>
+        <v>0.03992146704188515</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>83</v>
+      </c>
+      <c r="J93" t="n">
+        <v>185</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2213244676.675975</v>
+        <v>2244740152.74508</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1137997808463327</v>
+        <v>0.1531542127338719</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03352804443603959</v>
+        <v>0.03429402690726577</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2589565431.329365</v>
+        <v>2377263466.885404</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106313730106309</v>
+        <v>0.08675052832423813</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04420017096870869</v>
+        <v>0.0354035429422151</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2037979707.176649</v>
+        <v>1824126437.911551</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08859056629471024</v>
+        <v>0.1253914171110163</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04479769074541417</v>
+        <v>0.02993700072998711</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4331557962.036775</v>
+        <v>3377221927.714375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1734088052814558</v>
+        <v>0.1353622542057671</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0201008052658285</v>
+        <v>0.02762840582744775</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>89</v>
+      </c>
+      <c r="J97" t="n">
+        <v>185</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2828147185.548095</v>
+        <v>3619646103.363288</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1161508724975638</v>
+        <v>0.1019586238212972</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02563396426422628</v>
+        <v>0.02150494659293204</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>45</v>
+      </c>
+      <c r="J98" t="n">
+        <v>185</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2358427470.644765</v>
+        <v>3257061222.789419</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1133768785457529</v>
+        <v>0.1404021489125396</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03008398212311625</v>
+        <v>0.03089794783910474</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4737660524.994042</v>
+        <v>3287819565.366482</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1673802885648083</v>
+        <v>0.1150155465272464</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01774045117655137</v>
+        <v>0.0241978783721464</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>77</v>
+      </c>
+      <c r="J100" t="n">
+        <v>183</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2648656141.58825</v>
+        <v>3169745222.125905</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1797186216623203</v>
+        <v>0.1498734166275901</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03891065436114521</v>
+        <v>0.04731744340983701</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
